--- a/Data/g20.4.xlsx
+++ b/Data/g20.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4FE82D-9E54-4B3B-B98E-3208E59B2285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A93702-EDFB-4B87-827D-D83E4543154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,11 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +430,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +459,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0.31900000000000001</v>
       </c>
     </row>
@@ -472,7 +473,7 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -486,7 +487,7 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.28499999999999998</v>
       </c>
     </row>
@@ -500,7 +501,7 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.30099999999999999</v>
       </c>
     </row>
@@ -514,7 +515,7 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -528,7 +529,7 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.29499999999999998</v>
       </c>
     </row>
@@ -542,7 +543,7 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.30299999999999999</v>
       </c>
     </row>
@@ -556,7 +557,7 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.29699999999999999</v>
       </c>
     </row>
@@ -570,7 +571,7 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.29599999999999999</v>
       </c>
     </row>
@@ -584,7 +585,7 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.316</v>
       </c>
     </row>
@@ -598,7 +599,7 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0.315</v>
       </c>
     </row>
@@ -612,7 +613,7 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.309</v>
       </c>
     </row>
@@ -626,7 +627,7 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>0.307</v>
       </c>
     </row>
@@ -640,7 +641,7 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>0.311</v>
       </c>
     </row>
@@ -654,7 +655,7 @@
       <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>0.29599999999999999</v>
       </c>
     </row>
@@ -668,7 +669,7 @@
       <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>0.30399999999999999</v>
       </c>
     </row>
@@ -682,7 +683,7 @@
       <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>0.29699999999999999</v>
       </c>
     </row>
@@ -696,7 +697,7 @@
       <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>0.3</v>
       </c>
     </row>
@@ -710,7 +711,7 @@
       <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>0.30299999999999999</v>
       </c>
     </row>
@@ -724,7 +725,7 @@
       <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>0.31900000000000001</v>
       </c>
     </row>
@@ -738,7 +739,7 @@
       <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>0.249</v>
       </c>
     </row>
@@ -752,7 +753,7 @@
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>0.245</v>
       </c>
     </row>
@@ -766,7 +767,7 @@
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>0.24299999999999999</v>
       </c>
     </row>
@@ -780,7 +781,7 @@
       <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>0.248</v>
       </c>
     </row>
@@ -794,7 +795,7 @@
       <c r="C26" t="s">
         <v>10</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>0.23599999999999999</v>
       </c>
     </row>
@@ -808,7 +809,7 @@
       <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>0.24099999999999999</v>
       </c>
     </row>
@@ -822,7 +823,7 @@
       <c r="C28" t="s">
         <v>12</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>0.23799999999999999</v>
       </c>
     </row>
@@ -836,7 +837,7 @@
       <c r="C29" t="s">
         <v>13</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>0.23599999999999999</v>
       </c>
     </row>
@@ -850,7 +851,7 @@
       <c r="C30" t="s">
         <v>14</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>0.24099999999999999</v>
       </c>
     </row>
@@ -864,7 +865,7 @@
       <c r="C31" t="s">
         <v>15</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>0.249</v>
       </c>
     </row>

--- a/Data/g20.4.xlsx
+++ b/Data/g20.4.xlsx
@@ -1,43 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +48,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,20 +350,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -441,223 +365,298 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Ano</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>IVS</t>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Valor</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.446</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>31/12/2000</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>0.531</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.326</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>31/12/2010</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>0.393</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.266</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>31/12/2011</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.249</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>0.319</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.245</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>0.28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.243</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>31/12/2014</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>0.285</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.248</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>31/12/2015</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>0.301</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.236</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>0.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.241</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>0.295</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.238</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0.303</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.236</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0.297</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.241</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.296</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.249</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.316</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.518</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.28</v>
       </c>
     </row>
     <row r="16">
@@ -668,11 +667,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.408</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>31/12/2000</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.518</v>
       </c>
     </row>
     <row r="17">
@@ -683,11 +687,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.338</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>31/12/2010</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.408</v>
       </c>
     </row>
     <row r="18">
@@ -698,11 +707,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0.315</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>31/12/2011</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.338</v>
       </c>
     </row>
     <row r="19">
@@ -713,11 +727,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0.309</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.315</v>
       </c>
     </row>
     <row r="20">
@@ -728,11 +747,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0.307</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.309</v>
       </c>
     </row>
     <row r="21">
@@ -743,11 +767,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0.311</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>31/12/2014</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.307</v>
       </c>
     </row>
     <row r="22">
@@ -758,11 +787,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.296</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>31/12/2015</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>0.311</v>
       </c>
     </row>
     <row r="23">
@@ -773,11 +807,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0.304</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>0.296</v>
       </c>
     </row>
     <row r="24">
@@ -788,11 +827,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0.297</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>0.304</v>
       </c>
     </row>
     <row r="25">
@@ -803,11 +847,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0.3</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>0.297</v>
       </c>
     </row>
     <row r="26">
@@ -818,11 +867,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0.303</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>0.3</v>
       </c>
     </row>
     <row r="27">
@@ -833,209 +887,339 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0.319</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>0.303</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0.531</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>0.319</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0.393</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>0.27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0.318</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>31/12/2000</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>0.446</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0.319</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>31/12/2010</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>0.326</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0.28</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>31/12/2011</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>0.266</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0.285</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>0.249</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0.301</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>0.245</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0.28</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>31/12/2014</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>0.243</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0.295</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>31/12/2015</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>0.248</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0.303</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>0.236</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0.297</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>0.241</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0.296</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>0.238</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0.316</v>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>0.236</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>0.241</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>IVS</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>0.213</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/g20.4.xlsx
+++ b/Data/g20.4.xlsx
@@ -1,46 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,14 +420,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -382,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -392,17 +468,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>31/12/2000</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>0.531</v>
+          <t>31/12/2011</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.266</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -412,17 +488,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>31/12/2010</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>0.393</v>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -432,17 +508,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>31/12/2011</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.318</v>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -452,17 +528,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>0.319</v>
+          <t>31/12/2014</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.243</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -472,17 +548,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>0.28</v>
+          <t>31/12/2015</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.248</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -492,17 +568,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>0.285</v>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.236</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -512,17 +588,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>0.301</v>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.241</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,17 +608,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>0.28</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -552,17 +628,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>0.295</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.236</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -572,17 +648,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>0.303</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.241</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -592,17 +668,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>0.297</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.249</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -612,17 +688,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>0.296</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.213</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -632,17 +708,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>0.316</v>
+          <t>31/12/2011</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.338</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -652,11 +728,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>0.28</v>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.315</v>
       </c>
     </row>
     <row r="16">
@@ -672,11 +748,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>31/12/2000</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>0.518</v>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.309</v>
       </c>
     </row>
     <row r="17">
@@ -692,11 +768,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>31/12/2010</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>0.408</v>
+          <t>31/12/2014</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.307</v>
       </c>
     </row>
     <row r="18">
@@ -712,11 +788,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>31/12/2011</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>0.338</v>
+          <t>31/12/2015</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.311</v>
       </c>
     </row>
     <row r="19">
@@ -732,11 +808,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>0.315</v>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.296</v>
       </c>
     </row>
     <row r="20">
@@ -752,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>0.309</v>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.304</v>
       </c>
     </row>
     <row r="21">
@@ -772,11 +848,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>0.307</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.297</v>
       </c>
     </row>
     <row r="22">
@@ -792,11 +868,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>0.311</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="23">
@@ -812,11 +888,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>0.296</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.303</v>
       </c>
     </row>
     <row r="24">
@@ -832,11 +908,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>0.304</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.319</v>
       </c>
     </row>
     <row r="25">
@@ -852,17 +928,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>0.297</v>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -872,17 +948,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>0.3</v>
+          <t>31/12/2011</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.318</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -892,17 +968,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>0.303</v>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.319</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -912,17 +988,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>0.319</v>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -932,17 +1008,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>0.27</v>
+          <t>31/12/2014</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.285</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -952,17 +1028,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>31/12/2000</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>0.446</v>
+          <t>31/12/2015</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.301</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -972,17 +1048,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>31/12/2010</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>0.326</v>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -992,17 +1068,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31/12/2011</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>0.266</v>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1012,17 +1088,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>0.249</v>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.303</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1032,17 +1108,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>0.245</v>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.297</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1052,17 +1128,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>0.243</v>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.296</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1072,17 +1148,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>0.248</v>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.316</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1092,134 +1168,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>0.236</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>IVS</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>0.241</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>IVS</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>0.238</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>IVS</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>0.236</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>IVS</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>0.241</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>IVS</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>0.249</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>IVS</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
           <t>31/12/2022</t>
         </is>
       </c>
-      <c r="D43">
-        <v>0.213</v>
+      <c r="D37" t="n">
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>